--- a/biology/Biologie cellulaire et moléculaire/Téléthon_en_France/Téléthon_en_France.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Téléthon_en_France/Téléthon_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
+          <t>Téléthon_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En France, le Téléthon est un événement caritatif organisé depuis 1987 par l'Association française contre les myopathies (AFM) pour financer des projets de recherche sur les maladies génétiques neuromusculaires (myopathies, myotonie de Steinert) essentiellement, mais aussi sur d'autres maladies génétiques rares. L'argent est également utilisé pour aider au quotidien et accompagner les malades essentiellement atteints de myopathie.
 Le Téléthon est organisé avec l'aide de France Télévisions, qui met en place un marathon télévisuel sur ses chaînes le premier week-end du mois de décembre de chaque année, ainsi que l'aide du Lions Clubs.
-Cet événement, qui recueille 3 % des dons annuels des Français, est la plus grosse collecte populaire au monde[2].
+Cet événement, qui recueille 3 % des dons annuels des Français, est la plus grosse collecte populaire au monde.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
+          <t>Téléthon_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Les origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1980 aux États-Unis , le Téléthon est un marathon télévisé de vingt-deux heures en studio qui permet de récolter des fonds provenant de dons de particuliers ou d'entreprises privées.
-Au début des années 80, Antenne 2 refuse à l'animatrice Dorothée l'importation du concept en France, prétextant qu'il ne rencontrerait aucun succès[3].
-En août 1986, Pierre Birambeau[4] cadre supérieur et parent d'un enfant handicapé part mener l'enquête aux États-Unis avec sa femme, son fils aîné Rémi, quinze ans, et Damien, treize ans, atteint de myopathie.
+Au début des années 80, Antenne 2 refuse à l'animatrice Dorothée l'importation du concept en France, prétextant qu'il ne rencontrerait aucun succès.
+En août 1986, Pierre Birambeau cadre supérieur et parent d'un enfant handicapé part mener l'enquête aux États-Unis avec sa femme, son fils aîné Rémi, quinze ans, et Damien, treize ans, atteint de myopathie.
 Il constate alors que le Téléthon 1986 américain a récolté ce qui serait aujourd'hui l'équivalent de 30 millions d'euros. Il revient plein d'enthousiasme et entreprend de convaincre l'AFM de la chance que représenterait un évènement identique en France.
 Le Conseil d'administration de l'AFM sous la présidence de Bernard Barataud le charge alors d'organiser l'émission.
 L'AFM choisit Antenne 2 et le Lions Club de France dont les membres bénévoles répondront au téléphone.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
+          <t>Téléthon_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Téléthon a lieu chaque année lors du premier week-end du mois de décembre (du vendredi en début de soirée au dimanche tôt le matin).
 1) La collecte virtuelle à la télévision
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
+          <t>Téléthon_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,15 +612,89 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logo du Téléthon reprend, en l'intégrant, le logo de l'AFM et a donc évolué avec celui-ci.
 Ce dernier représente un "bonhomme" c'est-à-dire un être humain. Orienté originellement plutôt vers la gauche, il a ensuite été inversé en miroir vers la droite, pour porter un message d'avenir et d'espoir. Il est coloré, afin d'évoquer l'idée que, même si les maladies sont gravissimes car souvent mortelles, les malades eux croient en l'avenir (la recherche et la guérison) et font de leur quotidien des sources de joie malgré tout.
 Chaque année, l'AFM organise d'ailleurs la journée des Familles, évènement festif dédié aux malades
-Logo de l'AFM Téléthon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Identité visuelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Logo de l'AFM Téléthon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Logo AFM officiel de 2008 jusqu'au 12 avril 2012
 			Logo AFM officiel depuis le 12 avril 2012
-Logos de l'émission télévisée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Identité visuelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Logos de l'émission télévisée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Logo de l'émission jusqu’en 2004
 			Logo de l'émission en 2010
 			Logo de l'émission en 2011
@@ -613,31 +703,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Animateurs principaux du Téléthon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Laurent Boyer (2014)
@@ -657,38 +749,75 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bilan financier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AFM à chaque mobilisation fait la comptabilité de la collecte des dons.
 Le Téléthon rapporte 82 % des collectes de l'AFM. Plus précisément, 55 % viennent des dons par téléphone au 36 37 et Internet, 40 % proviennent des animations organisées en France. Ses autres ressources sont principalement des legs (5,9 %) et du pôle Yolaine de Kepper (6,8 %).
-Entre 2008 et 2013, le coût cumulé de l'émission a représenté un peu plus de 19 millions d'euros, dont 2,7 millions ont été couverts par la publicité et les parrainages tandis que l'AMF–Téléthon s'est vu facturer 10,8 millions d'euros[5].
+Entre 2008 et 2013, le coût cumulé de l'émission a représenté un peu plus de 19 millions d'euros, dont 2,7 millions ont été couverts par la publicité et les parrainages tandis que l'AMF–Téléthon s'est vu facturer 10,8 millions d'euros.
 Quant aux dépenses, 17 % servent aux frais de gestion, frais de collectes et logistiques et au budget de fonctionnement de l'AFM. 83 % servent aux missions sociales : la recherche médicale (biothérapies, essais thérapeutiques, programmes stratégiques), l'accompagnement aux familles et plateforme d'aide et la communication et opérations de sensibilisations.
-Sommes récoltées depuis 1987
-Le total des sommes collectées par le Téléthon depuis 1987 s'élève à 2 milliards 788 millions d'euro environ (à 2022).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bilan financier</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sommes récoltées depuis 1987</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le total des sommes collectées par le Téléthon depuis 1987 s'élève à 2 milliards 788 millions d'euro environ (à 2022).
 Note : 
 En 2010, le compteur est resté en activité après la fin des trente heures de direct (à l'issue desquelles il affichait 84 076 371 € de promesses de dons).
 Ce qui fait un total de 2 330 423 871 € de promesses de dons après l'édition 2019.
@@ -711,56 +840,258 @@
 2023
   Promesses de dons
   Sommes collectées
-D'après le rapport de la Cour des comptes publié le 13 juin 2016, le montant moyen des dons (les recettes des animations n'étant pas comprises) est passé de 55,81 € en 2008 à 66,37 € en 2014[24].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+D'après le rapport de la Cour des comptes publié le 13 juin 2016, le montant moyen des dons (les recettes des animations n'étant pas comprises) est passé de 55,81 € en 2008 à 66,37 € en 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Présentation des éditions du Téléthon</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Années 1990
-Téléthon 1998
-[25]
-Années 2000
-Téléthon 2004
-Le Téléthon 2004 s'est achevé le dimanche 5 décembre peu après 2 h 50, après 31 h 30 d'antenne sur France 2 après un long marathon télévisé à la place du Trocadéro à Paris.
-Téléthon 2005
-Le Téléthon 2005 s'est achevé le dimanche 4 décembre vers 2 h 45, après 30 h d'antenne sur France 2. Il a mobilisé 90 000 bénévoles en plus des organisateurs dans 22 000 manifestations à travers la France et le direct a dû avoir lieu au Grand Palais de Paris.
-Téléthon 2006
-Un débat s'est ouvert à la suite de la réflexion du diocèse de Fréjus-Toulon quant à l'éthique du Téléthon : est-il acceptable de financer des recherches scientifiques qui utilisent des embryons humains[26] ? La réponse du Téléthon s'est limitée à ce qui est légal. Ce qui ne répond pas à la question, d'après les contradicteurs, qui pensent qu'une véritable réflexion sur ce sujet permettrait aux donateurs d'exercer leur générosité en toute connaissance de cause.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Téléthon 1998</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Téléthon 2004</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Téléthon 2004 s'est achevé le dimanche 5 décembre peu après 2 h 50, après 31 h 30 d'antenne sur France 2 après un long marathon télévisé à la place du Trocadéro à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Téléthon 2005</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Téléthon 2005 s'est achevé le dimanche 4 décembre vers 2 h 45, après 30 h d'antenne sur France 2. Il a mobilisé 90 000 bénévoles en plus des organisateurs dans 22 000 manifestations à travers la France et le direct a dû avoir lieu au Grand Palais de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Téléthon 2006</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un débat s'est ouvert à la suite de la réflexion du diocèse de Fréjus-Toulon quant à l'éthique du Téléthon : est-il acceptable de financer des recherches scientifiques qui utilisent des embryons humains ? La réponse du Téléthon s'est limitée à ce qui est légal. Ce qui ne répond pas à la question, d'après les contradicteurs, qui pensent qu'une véritable réflexion sur ce sujet permettrait aux donateurs d'exercer leur générosité en toute connaissance de cause.
 Le Téléthon 2006 a commencé le vendredi 8 décembre 2006 à 19 heures et s'est achevé après 30 heures d'émission précisément, le dimanche 10 décembre à 1 h 05 avec le même lieu qu'en 2004, la Place du Trocadéro à Paris.
 La promesse de don fut de 101 472 581 € et il y eut 106 696 532 € de don reçu : un record
-Téléthon 2007
-Le Téléthon 2007 a eu lieu au château de Vincennes du vendredi 7 décembre à 19 heures au dimanche 9 décembre 2007 à 1 h 50.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Téléthon 2007</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Téléthon 2007 a eu lieu au château de Vincennes du vendredi 7 décembre à 19 heures au dimanche 9 décembre 2007 à 1 h 50.
 Ce marathon télévisuel se déploie sur tout le territoire à travers deux plateaux nationaux, à Paris et à Metz (samedi après-midi), et dans 13 villes ambassadrices France 3 qui rendront compte de la mobilisation populaire partout en France.
 L'affiche est différente de celle des années précédentes. Elle est composée principalement du slogan de cette édition « La maladie je la regarde droit dans les yeux et je ne baisserai pas le regard. » et en fond, la photo des yeux de la petite Julie, 8 ans, atteinte d'une maladie neuromusculaire. Cette édition est parrainée par Kad Merad accompagné de Liane Foly. Enfin, l'AFM a lancé, dès octobre, une campagne d'affichage pour recruter des organisateurs pour cette édition.
 Évolution du compteur de promesses de dons (comparatif 2006/2007)
-Téléthon 2008
-La 22e édition du Téléthon a recueilli 95 200 125 euros de promesses de dons, au terme d'un marathon diffusé en alternance sur les chaînes publiques France 2 et France 3 le week-end du 5 décembre 2008. Le montant des dons du Téléthon 2008 est quasi équivalent aux 96,2 millions d'euros promis en 2007. L'année précédente, les 96 228 136 euros de promesses de dons avaient abouti à une collecte finale de 102,3 millions d'euros, contre 106,7 millions en 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Téléthon 2008</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 22e édition du Téléthon a recueilli 95 200 125 euros de promesses de dons, au terme d'un marathon diffusé en alternance sur les chaînes publiques France 2 et France 3 le week-end du 5 décembre 2008. Le montant des dons du Téléthon 2008 est quasi équivalent aux 96,2 millions d'euros promis en 2007. L'année précédente, les 96 228 136 euros de promesses de dons avaient abouti à une collecte finale de 102,3 millions d'euros, contre 106,7 millions en 2006.
 Marathon de trente heures de direct, le téléthon 2008 avait pour parrain le chanteur Julien Clerc et pour porte-parole Thomas, un petit garçon de 8 ans atteint d'une myopathie qui le prive peu à peu de ses forces.
 104 911 383 € : c’est le résultat final de l’édition 2008 du Téléthon, soit une concrétisation de plus de 110 % du compteur final, qui s’affichait, à la fin des trente heures d’émission, à 95 200 125 € de promesses de dons.
 La collecte du Téléthon 2008 en détail :
@@ -768,117 +1099,741 @@
 Animations sur le terrain : 41,7 M€, 22 000 animations partout en France et en Outre-mer ;
 Partenaires : 5,5 M€, 80 partenaires nationaux (entreprises et fédérations).
 Évolution du compteur de promesses de dons (comparatif 2007/2008)
-Téléthon 2009
-La 23e édition du Téléthon, parrainée par l'acteur Daniel Auteuil a lieu les 4 et 5 décembre au Pavillon Baltard à Nogent-sur-Marne (94130) dans le Val-de-Marne (Île-de-France) et à Annecy (74000) en Haute-Savoie (Rhône-Alpes). Le slogan de cette année est « Tous plus forts que tout ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Téléthon 2009</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 23e édition du Téléthon, parrainée par l'acteur Daniel Auteuil a lieu les 4 et 5 décembre au Pavillon Baltard à Nogent-sur-Marne (94130) dans le Val-de-Marne (Île-de-France) et à Annecy (74000) en Haute-Savoie (Rhône-Alpes). Le slogan de cette année est « Tous plus forts que tout ».
 Comme ambassadeurs il y a Céleste (7 ans) et Léandre (10 ans). Le frère et la sœur sont tous deux atteints d'une même myopathie qui les prive, muscle après muscle, de leurs forces. Le « direct » s'est terminé vers 1 h 30.
 Évolution du compteur de promesses de dons (comparatif 2008/2009)
-Années 2010
-Téléthon 2010
-La 24e édition du Téléthon a lieu les 3 et 4 décembre 2010 à Paris, Troyes, Pau et dans 12 autres villes ambassadrices[27]. Le slogan de cette année est « On a tous raison[S] d’y croire ». La marraine de ce Téléthon est Anne Roumanoff[28] et Juline, atteinte d’amyotrophie spinale, en est l'ambassadrice[29].
-La mascotte du Téléthon 2010 s'appelle L'Eugène et a été imaginée par la société Atmedia[30]. Elle tire son nom des mots "Le gène" et sa forme du chromosome.
-Le "direct" s'est terminé à 2 h 05, le dimanche 5 décembre 2010, après plus de trente-et-une heures de « non-stop ». Le compteur indique alors 84 076 371 €. Il n'est bloqué qu'une semaine après la fin officielle du Téléthon, en raison des nombreux reports de manifestations sur le terrain à cause des conditions climatiques. Il indique alors 90 756 400 €[31].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Téléthon 2010</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 24e édition du Téléthon a lieu les 3 et 4 décembre 2010 à Paris, Troyes, Pau et dans 12 autres villes ambassadrices. Le slogan de cette année est « On a tous raison[S] d’y croire ». La marraine de ce Téléthon est Anne Roumanoff et Juline, atteinte d’amyotrophie spinale, en est l'ambassadrice.
+La mascotte du Téléthon 2010 s'appelle L'Eugène et a été imaginée par la société Atmedia. Elle tire son nom des mots "Le gène" et sa forme du chromosome.
+Le "direct" s'est terminé à 2 h 05, le dimanche 5 décembre 2010, après plus de trente-et-une heures de « non-stop ». Le compteur indique alors 84 076 371 €. Il n'est bloqué qu'une semaine après la fin officielle du Téléthon, en raison des nombreux reports de manifestations sur le terrain à cause des conditions climatiques. Il indique alors 90 756 400 €.
 Quelques jours avant cette 24e édition, le lancement du Généthon Bioprod a été annoncé le 30 novembre.
-Outre la situation globale économique difficile, cette édition s'est tenue dans un contexte météorologique peu propice à la mobilisation sur le terrain. En effet, la France a été particulièrement touchée par le froid et la neige tout au long du marathon audiovisuel, ce qui a contraint l'annulation ou le report de certaines manifestations. Le Téléthon souffre également de la polémique initiée l'année dernière ainsi que d'une médiatisation moindre en raison de la finale de la coupe Davis[32].
+Outre la situation globale économique difficile, cette édition s'est tenue dans un contexte météorologique peu propice à la mobilisation sur le terrain. En effet, la France a été particulièrement touchée par le froid et la neige tout au long du marathon audiovisuel, ce qui a contraint l'annulation ou le report de certaines manifestations. Le Téléthon souffre également de la polémique initiée l'année dernière ainsi que d'une médiatisation moindre en raison de la finale de la coupe Davis.
 Évolution du compteur de promesses de dons (comparatif 2009/2010)
-Téléthon 2011
-La 25e édition du Téléthon a lieu les 2 et 3 décembre 2011 aux Studios du Lendit à La Plaine Saint Denis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Téléthon 2011</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 25e édition du Téléthon a lieu les 2 et 3 décembre 2011 aux Studios du Lendit à La Plaine Saint Denis.
 Pour la première fois, à l’initiative du producteur Daniel Patte, elle est diffusée sur l'ensemble des chaines du groupe France Télévisions : France 2, France 3, France 4, France 5, France Ô et Outre-Mer 1re, assurant ainsi une continuité télévisuelle complète du début à la fin de l'édition. Le direct a commencé le vendredi 2 à 18 h 50 pour se terminer dimanche 4 vers 2 h 15.
-Gad Elmaleh assure le parrainage aux côtés de Raphaël, enfant atteint de la myopathie de Duchenne. L'affiche de ce 25e Téléthon représente Raphaël au bord d'une plage déguisé en Superman. Elle fait référence à l'affiche du 1er Téléthon en 1987, qui représentait un jeune garçon au bord d'une plage, ayant ses pieds qui s'enfonce dans le sable (pour représenter la maladie). Le slogan est « 25 ans... et bien des victoires plus tard[33]».
+Gad Elmaleh assure le parrainage aux côtés de Raphaël, enfant atteint de la myopathie de Duchenne. L'affiche de ce 25e Téléthon représente Raphaël au bord d'une plage déguisé en Superman. Elle fait référence à l'affiche du 1er Téléthon en 1987, qui représentait un jeune garçon au bord d'une plage, ayant ses pieds qui s'enfonce dans le sable (pour représenter la maladie). Le slogan est « 25 ans... et bien des victoires plus tard».
 Après quatre années de baisse, la collecte effectue une remontée : le montant des promesses de dons à la fin du direct est de 86 119 425 €.
 Évolution du compteur de promesses de dons (comparatif 2010/2011)
-Téléthon 2012
-La 26e édition du Téléthon a lieu les 7 et 8 décembre 2012 aux Studios 107 à La Plaine Saint Denis ainsi que dans quatre villes ambassadrices : Nice (Alpes-Maritimes), Dreux (Eure-et-Loir), Saint-Paul (La Réunion) et Moissac (Tarn-et-Garonne). Le slogan de cette année est « Oser Vaincre ! ». Le parrain de ce Téléthon est le comédien et humoriste Franck Dubosc[34].
-Le 8 septembre 2012, place de la Bastille à Paris, un après-midi de mobilisation est organisé par l'AFM et France Télévisions pour le lancement médiatique de cette édition[35].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Téléthon 2012</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 26e édition du Téléthon a lieu les 7 et 8 décembre 2012 aux Studios 107 à La Plaine Saint Denis ainsi que dans quatre villes ambassadrices : Nice (Alpes-Maritimes), Dreux (Eure-et-Loir), Saint-Paul (La Réunion) et Moissac (Tarn-et-Garonne). Le slogan de cette année est « Oser Vaincre ! ». Le parrain de ce Téléthon est le comédien et humoriste Franck Dubosc.
+Le 8 septembre 2012, place de la Bastille à Paris, un après-midi de mobilisation est organisé par l'AFM et France Télévisions pour le lancement médiatique de cette édition.
 Le résultat final fut de 88 156 400 €
 Évolution du compteur de promesses de dons (comparatif 2011/2012)
-Téléthon 2013
-La 27e édition du Téléthon a lieu les 6 et 7 décembre 2013 aux Studios 107 à La Plaine Saint-Denis avec Patrick Bruel comme parrain[36].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Téléthon 2013</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 27e édition du Téléthon a lieu les 6 et 7 décembre 2013 aux Studios 107 à La Plaine Saint-Denis avec Patrick Bruel comme parrain.
 Cette année, il y a 5 familles ambassadrices pour ce Téléthon contrairement aux autres années.
 Le résultat final fut de 89 327 268 €
 Évolution du compteur de promesses de dons (comparatif 2012/2013)
-Téléthon 2014
-La 28e édition du Téléthon a lieu les 5 et 6 décembre 2014 sur le Champ-de-Mars (Paris), avec le chanteur Garou comme parrain[37].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Téléthon 2014</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 28e édition du Téléthon a lieu les 5 et 6 décembre 2014 sur le Champ-de-Mars (Paris), avec le chanteur Garou comme parrain.
 L'émission, diffusée sur France 2, France 3, France Ô et Réseau Outre-Mer 1re, a débuté le vendredi 5 décembre à 18h45 ; elle s'est terminée le dimanche 7 décembre à 1h34, avec un arrêt du compteur à 1 h 30.
 Le résultat final fut de 92 920 108 €.
 Évolution du compteur de promesses de dons (comparatif 2013/2014)
-Téléthon 2015
-La 29e édition du Téléthon a lieu les 4 et 5 décembre 2015, avec le chanteur Marc Lavoine comme parrain[38]. Initialement prévue au Champ-de-Mars (Paris), cette édition se déroulera finalement à l'hippodrome de Longchamp, en raison des attentats du 13 novembre ; de même, toutes les manifestations prévues sur la voie publique dans la capitale, comme la célèbre « marche des maladies rares », sont annulées[39]. En lieu et place de cette marche, un des temps forts de l'événement, un rassemblement des maladies rares aura lieu sur l'hippodrome[39].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Téléthon 2015</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 29e édition du Téléthon a lieu les 4 et 5 décembre 2015, avec le chanteur Marc Lavoine comme parrain. Initialement prévue au Champ-de-Mars (Paris), cette édition se déroulera finalement à l'hippodrome de Longchamp, en raison des attentats du 13 novembre ; de même, toutes les manifestations prévues sur la voie publique dans la capitale, comme la célèbre « marche des maladies rares », sont annulées. En lieu et place de cette marche, un des temps forts de l'événement, un rassemblement des maladies rares aura lieu sur l'hippodrome.
 L'émission, retransmise sur France 2 et France 3, a débuté le vendredi 4 décembre à 18 h 45 ; elle s'est terminée le dimanche 6 décembre à 1h59, avec un arrêt du compteur à 1 h 47.
-Par ailleurs, les villes de Avignon, Beauvais, Maussane-les-Alpilles, Roanne, Saint-Étienne et Saint-Valery-en-Caux sont les villes « ambassadrices » de cette édition 2015[38].
+Par ailleurs, les villes de Avignon, Beauvais, Maussane-les-Alpilles, Roanne, Saint-Étienne et Saint-Valery-en-Caux sont les villes « ambassadrices » de cette édition 2015.
 Évolution du compteur de promesses de dons (comparatif 2014/2015)
 Le résultat final fut de 93 850 778 €.
-Téléthon 2016
-La 30e édition du Téléthon a eu lieu les 2 et 3 décembre 2016[40] à l'hippodrome de Longchamp avec le chanteur Garou comme parrain. Les villes de Montauban, Nevers, Noyal-sur-Vilaine et Palavas-les-Flots ont été désignées comme villes « ambassadrices »[41].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Téléthon 2016</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 30e édition du Téléthon a eu lieu les 2 et 3 décembre 2016 à l'hippodrome de Longchamp avec le chanteur Garou comme parrain. Les villes de Montauban, Nevers, Noyal-sur-Vilaine et Palavas-les-Flots ont été désignées comme villes « ambassadrices ».
 L'émission, diffusée sur France 2 et France 3, a débuté le vendredi 2 décembre à 18 h 45 ; elle s'est terminée le dimanche 4 décembre à 2 h 7, avec un arrêt du compteur à 1 h 59.
 Évolution du compteur de promesses de dons (comparatif 2015/2016)
-Le résultat final est de 92 740 769 €[42].
-Téléthon 2017
-La 31e édition du Téléthon a lieu les 8 et 9 décembre 2017[43] au Pavillon Baltard à Nogent-sur-Marne[44] et sur le Plateau E du siège de France Télévisions à Paris, avec la chanteuse Zazie comme marraine[45]. Les villes ambassadrices sont au nombre de quatre: Angoulême (Charente), Saint-Quentin (Aisne), Aubagne (Bouches-du-Rhône) et Beynat (Corrèze).
+Le résultat final est de 92 740 769 €.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Téléthon 2017</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 31e édition du Téléthon a lieu les 8 et 9 décembre 2017 au Pavillon Baltard à Nogent-sur-Marne et sur le Plateau E du siège de France Télévisions à Paris, avec la chanteuse Zazie comme marraine. Les villes ambassadrices sont au nombre de quatre: Angoulême (Charente), Saint-Quentin (Aisne), Aubagne (Bouches-du-Rhône) et Beynat (Corrèze).
 Cette édition, retransmise sur France 2, France 3 et France 5, a débuté le vendredi 8 décembre à 18 h 45. Si le compteur a été arrêté le dimanche 10 décembre à 1 h 51, et le direct une minute après, France 2 a proposé dans la foulée une rediffusion de la traversée du slackliner Nathan Paulin entre la tour Eiffel et l'esplanade du Trocadero, qui avait eu lieu samedi midi, ainsi que la prestation de différents artistes avec des chorales en début de soirée ; le Téléthon 2017 s'est finalement terminé à 4 h 3.
-Pour la première fois, la Grande Parade de Disneyland Paris est retransmise en direct sur une chaîne de télévision française. L'édition est marquée par des hommages au chanteur Johnny Hallyday, décédé le 6 décembre ; ses obsèques, accompagnées d'un « hommage populaire » dans les rues de Paris, ayant lieu le samedi, les programmes liés au Téléthon entre 11 h et 15 h 20, prévus à l'origine sur France 2, sont par ailleurs diffusés sur France 5 puis France 3, afin de permettre à la première chaîne de retransmettre la cérémonie[46],[47],[48].
-Le compteur final de promesses de dons affiche une baisse de près de 6 % par rapport à 2016, soit près de 5 millions d'euros de différence ; il s'agit du plus mauvais résultat depuis l'édition de 1999. Laurence Tiennot-Herment déclara que c'est à cause du contexte difficile « La France était endeuillée. On sait que la France qui a pleuré Johnny Hallyday est en grande partie celle qui donne aussi pour le Téléthon. On peut comprendre que les Français n'avaient pas la tête à ça »[49].
-Évolution du compteur de promesses de dons (comparatif 2016/2017)[50],[51]
-Téléthon 2018
-La 32e édition du Téléthon a lieu les 7 et 8 décembre 2018[52]. Le parrain est Pascal Obispo.
+Pour la première fois, la Grande Parade de Disneyland Paris est retransmise en direct sur une chaîne de télévision française. L'édition est marquée par des hommages au chanteur Johnny Hallyday, décédé le 6 décembre ; ses obsèques, accompagnées d'un « hommage populaire » dans les rues de Paris, ayant lieu le samedi, les programmes liés au Téléthon entre 11 h et 15 h 20, prévus à l'origine sur France 2, sont par ailleurs diffusés sur France 5 puis France 3, afin de permettre à la première chaîne de retransmettre la cérémonie.
+Le compteur final de promesses de dons affiche une baisse de près de 6 % par rapport à 2016, soit près de 5 millions d'euros de différence ; il s'agit du plus mauvais résultat depuis l'édition de 1999. Laurence Tiennot-Herment déclara que c'est à cause du contexte difficile « La France était endeuillée. On sait que la France qui a pleuré Johnny Hallyday est en grande partie celle qui donne aussi pour le Téléthon. On peut comprendre que les Français n'avaient pas la tête à ça ».
+Évolution du compteur de promesses de dons (comparatif 2016/2017),
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Téléthon 2018</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 32e édition du Téléthon a lieu les 7 et 8 décembre 2018. Le parrain est Pascal Obispo.
 L'émission, diffusée sur France 2 et France 3, a débuté le vendredi 7 décembre à 18 h 45 ; elle s'est terminée le dimanche 9 décembre à 1 h 48, avec un arrêt du compteur à 1 h 44.
-L'édition est perturbée par le mouvement des Gilets jaunes[53], de ce fait le plateau prévu place de la Concorde à Paris est contraint de déménager dans les studios de France Télévisions Le Franay à Saint-Cloud[54].
+L'édition est perturbée par le mouvement des Gilets jaunes, de ce fait le plateau prévu place de la Concorde à Paris est contraint de déménager dans les studios de France Télévisions Le Franay à Saint-Cloud.
 Le compteur final de promesses de dons affiche à nouveau une nette baisse par rapport à l'année précédente ; 8,4 % de moins, soit une différence de plus de 6 millions d'euros en comparaison de 2017, le montant de promesses de dons étant d'ailleurs le plus faible depuis vingt éditions.
 En revanche, la collecte finale s'élève à 85 844 117 €, soit un taux de concrétisation record de +23,89 %.
 Évolution du compteur de promesses de dons (comparatif 2017/2018)
-Téléthon 2019
-La 33e édition du Téléthon a lieu les 6 et 7 décembre 2019[55] au Parc de la Villette à Paris, avec l'acteur et réalisateur Jean-Paul Rouve comme parrain[56]. L'émission, diffusée sur France 2 et France 3, a débuté le vendredi 6 décembre à 18 h 44 ; elle s'est terminée le dimanche 8 décembre à 1 h 50, avec un arrêt du compteur à 1 h 45.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Téléthon 2019</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 33e édition du Téléthon a lieu les 6 et 7 décembre 2019 au Parc de la Villette à Paris, avec l'acteur et réalisateur Jean-Paul Rouve comme parrain. L'émission, diffusée sur France 2 et France 3, a débuté le vendredi 6 décembre à 18 h 44 ; elle s'est terminée le dimanche 8 décembre à 1 h 50, avec un arrêt du compteur à 1 h 45.
 Évolution du compteur de promesses de dons (comparatif 2018/2019)
-Années 2020
-Téléthon 2020
-La 34e édition du Téléthon a lieu les 4 et 5 décembre 2020[57] aux Studios du Lendit à la Plaine Saint Denis, avec le chanteur M. Pokora comme parrain[58].
-L'édition a lieu alors que la France était sous confinement sanitaire pour lutter contre la pandémie de Covid-19. 80 % des animations prévues sont annulées, ce qui impacte le compteur de dons, le terrain représente habituellement 40 % de la collecte selon Laurence Tiennot-Herment[59].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Téléthon 2020</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 34e édition du Téléthon a lieu les 4 et 5 décembre 2020 aux Studios du Lendit à la Plaine Saint Denis, avec le chanteur M. Pokora comme parrain.
+L'édition a lieu alors que la France était sous confinement sanitaire pour lutter contre la pandémie de Covid-19. 80 % des animations prévues sont annulées, ce qui impacte le compteur de dons, le terrain représente habituellement 40 % de la collecte selon Laurence Tiennot-Herment.
 Évolution du compteur de promesses de dons (comparatif 2019/2020)
-Le montant définitif des dons s'élève à 77 298 024 € soit près de 10 millions d'euros de moins que lors de l'édition 2019[60].
-Téléthon 2021
-La 35e édition du Téléthon a eu lieu les 3 et 4 décembre 2021[61] aux Studios du Lendit à la Plaine Saint Denis, avec le chanteur Soprano comme parrain[62]. Le compteur a été arrêté à 1 h 32.
+Le montant définitif des dons s'élève à 77 298 024 € soit près de 10 millions d'euros de moins que lors de l'édition 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Téléthon 2021</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 35e édition du Téléthon a eu lieu les 3 et 4 décembre 2021 aux Studios du Lendit à la Plaine Saint Denis, avec le chanteur Soprano comme parrain. Le compteur a été arrêté à 1 h 32.
 Évolution du compteur de promesses de dons (comparatif 2020/2021)
 Le montant définitif des dons s'élève à 85 933 166 € (montant diffusé par l'AFM le 04/04/2022) soit 17 % de plus que les promesses ou 11,25 % de plus que les dons de 2020.
-Téléthon 2022
-La 36eme édition du Téléthon a eu lieu les 2 et 3 décembre 2022[61] aux Studios du Lendit à la Plaine Saint Denis, avec l'acteur et humoriste Kev Adams comme parrain[62]. Les villes ambassadrices sont au nombre de quatre : Dijon (Côte-d'Or), Lorient (Morbihan), Guebwiller (Haut-Rhin) et Cassis (Bouches-du-Rhône). Le compteur a été arrêté à 1 h 47.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Téléthon 2022</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 36eme édition du Téléthon a eu lieu les 2 et 3 décembre 2022 aux Studios du Lendit à la Plaine Saint Denis, avec l'acteur et humoriste Kev Adams comme parrain. Les villes ambassadrices sont au nombre de quatre : Dijon (Côte-d'Or), Lorient (Morbihan), Guebwiller (Haut-Rhin) et Cassis (Bouches-du-Rhône). Le compteur a été arrêté à 1 h 47.
 Évolution du compteur de promesses de dons (comparatif 2021/2022)
 Le montant définitif des dons s'élève à 90 839 067 € (montant diffusé par l'AFM sur son site) soit 16,4 % de plus que les promesses.
-Téléthon 2023
-La 37e édition du Téléthon a lieu les 8 et 9 décembre 2023, avec le chanteur Vianney comme parrain. Les villes ambassadrices sont au nombre de quatre : Caudebec-lès-Elbeuf (Seine-Maritime), Gujan-Mestras (Gironde), Clermont-l'Hérault (Hérault) et Morestel (Isère).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Téléthon 2023</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 37e édition du Téléthon a lieu les 8 et 9 décembre 2023, avec le chanteur Vianney comme parrain. Les villes ambassadrices sont au nombre de quatre : Caudebec-lès-Elbeuf (Seine-Maritime), Gujan-Mestras (Gironde), Clermont-l'Hérault (Hérault) et Morestel (Isère).
 L'émission, diffusée sur France 2 et France 3, a débuté le vendredi 8 décembre à 18 h 45 et s'est terminée le dimanche 10 décembre à 1 h 56, avec un arrêt du compteur à 1 h 51.
 Évolution du compteur de promesses de dons (comparatif 2022/2023)
-Le montant définitif des dons s'élève à 92 905 533 €, soit 13,2 % de plus que les promesses[63]. Ce montant est également en hausse de 2,2 % par rapport à l'année précédente ; il s'agit également du meilleur résultat depuis 2015[64].
-Téléthon 2024
-La 38e édition du Téléthon aura lieu les 29 et 30 novembre 2024. Alors que le marathon télévisuel se tient habituellement le premier week-end de décembre, la date de diffusion a été avancée par France Télévisions afin de pouvoir retransmettre les festivités liées à la réouverture de la cathédrale Notre-Dame de Paris les 7 et 8 décembre[65],[66].
+Le montant définitif des dons s'élève à 92 905 533 €, soit 13,2 % de plus que les promesses. Ce montant est également en hausse de 2,2 % par rapport à l'année précédente ; il s'agit également du meilleur résultat depuis 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Présentation des éditions du Téléthon</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Téléthon 2024</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 38e édition du Téléthon aura lieu les 29 et 30 novembre 2024. Alors que le marathon télévisuel se tient habituellement le premier week-end de décembre, la date de diffusion a été avancée par France Télévisions afin de pouvoir retransmettre les festivités liées à la réouverture de la cathédrale Notre-Dame de Paris les 7 et 8 décembre,.
 Évolution du compteur de promesses de dons (comparatif 2023/2024)
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Producteurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>1987 - 1996 : Pierre-Henri Arnstam et Jean-Pierre Spiero
 1997 - 2003 : Daniel Patte
@@ -891,33 +1846,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>La musique du Téléthon</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La musique générique du Téléthon est une composition originale de Marc Goldfeder datant de 1987[67].
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique générique du Téléthon est une composition originale de Marc Goldfeder datant de 1987.
 La chanson L'Appel du cœur, écrite et composée par Claude Pons en 1999, a fait l'objet de deux singles en 2001 et 2004.
 La chanson Donnez-leur interprétée par Odréna et fil rouge du département de la Seine-Saint-Denis deux années de suite, en 2004 et en 2005, a fait l'objet de deux singles.
 En 2009, Aimé Nouma a écrit Tous plus forts que tout, un slam reprenant le slogan de l'édition Téléthon de cette année.
@@ -929,63 +1886,279 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Critiques formulées contre le Téléthon</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Débat sur les cellules souches
-Des évêques de France ont appelé en 2006 les fidèles à ne pas donner pour le Téléthon, car les fonds servent en partie à la recherche sur des cellules souches embryonnaires[68].
-Dans une interpellation à l'Assemblée nationale, le 5 décembre 2006, le député socialiste Manuel Valls a violemment critiqué cette position de l'épiscopat, prise quelques jours avant le téléthon[69]; ses opposants lui reprochent de ne pas leur opposer une critique sur le fond. La plupart des hommes politiques ont défendu le Téléthon, évoquant souvent le principe de laïcité. L'Église catholique a jugé cette critique infondée, a revendiqué son droit à la liberté d'expression et a rappelé que son avis ne concerne que ses fidèles.
-Débat sur l'importance des maladies combattues
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Débat sur les cellules souches</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des évêques de France ont appelé en 2006 les fidèles à ne pas donner pour le Téléthon, car les fonds servent en partie à la recherche sur des cellules souches embryonnaires.
+Dans une interpellation à l'Assemblée nationale, le 5 décembre 2006, le député socialiste Manuel Valls a violemment critiqué cette position de l'épiscopat, prise quelques jours avant le téléthon; ses opposants lui reprochent de ne pas leur opposer une critique sur le fond. La plupart des hommes politiques ont défendu le Téléthon, évoquant souvent le principe de laïcité. L'Église catholique a jugé cette critique infondée, a revendiqué son droit à la liberté d'expression et a rappelé que son avis ne concerne que ses fidèles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Critiques formulées contre le Téléthon</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Débat sur l'importance des maladies combattues</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans son ouvrage intitulé Le vélo, le mur et le citoyen paru en 2006, Jacques Testart reproche au Téléthon de ne pas mobiliser la solidarité en faveur de tous les handicaps : 
 « Depuis bientôt deux décennies, deux jours de programme d’une télévision publique sont exclusivement réservés chaque année à une opération remarquablement orchestrée, à laquelle contribuent tous les autres médias : le Téléthon. Ainsi, des pathologies, certes dramatiques mais qui concernent fort heureusement assez peu de personnes (deux ou trois fois moins que la seule trisomie 21 par exemple), mobilisent davantage la population et recueillent infiniment plus d’argent que des maladies tout aussi terribles et cent ou mille fois plus fréquentes. »
-En 2011, Jacques Testart reprend cette critique, estimant que le Téléthon a une influence indirecte sur les objectifs des laboratoires de recherche médicale publics que l'AFM finance, ceux-ci étant alors conduits à privilégier les recherches sur les myopathies, au détriment d'autres recherches tout aussi importantes, par exemple sur les maladies infectieuses. Jacques Testart adresse le même reproche au Généthon, laboratoire privé associé à des multinationales des biotechnologies afin d’être plus compétitif pour prendre des brevets et gagner des parts de marché, mais financé également par l'INSERM[70].
-Critiques de Pierre Bergé
-En novembre 2009, Pierre Bergé, président du Sidaction[71], accuse le Téléthon de « parasiter la générosité des français[72] ». Line Renaud, vice-présidente de cette même association, interrogée par Europe 1, demande « au Téléthon de partager[73] ». Selon eux, pratiquement chaque année, toutes les ressources de l'AFM ne sont pas utilisées.
-En fait, l'AFM dispose d'un an de budget d'avance dans le seul but d'anticiper et « pallier un éventuel échec du Téléthon[74] », ce qui lui évite toute rupture de financement pendant plusieurs mois.
-En 2009, des « produits financiers » ont rapporté 6,60 millions d'euros[75] en légère baisse par rapport aux 7,89 millions de 2008[76], en grande partie causée par la diminution des dons et des reprises de réserves et provisions (investies sur des engagements pluriannuels), que ne compense pas la légère baisse des charges d'exploitation (survenue malgré la très légère hausse des charges de personnel), et par la hausse très sensible des charges exceptionnelles d'opérations de gestion (essentiellement des transferts de charge financière, en hausse de plus de 3 millions d'euros).
+En 2011, Jacques Testart reprend cette critique, estimant que le Téléthon a une influence indirecte sur les objectifs des laboratoires de recherche médicale publics que l'AFM finance, ceux-ci étant alors conduits à privilégier les recherches sur les myopathies, au détriment d'autres recherches tout aussi importantes, par exemple sur les maladies infectieuses. Jacques Testart adresse le même reproche au Généthon, laboratoire privé associé à des multinationales des biotechnologies afin d’être plus compétitif pour prendre des brevets et gagner des parts de marché, mais financé également par l'INSERM.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Critiques formulées contre le Téléthon</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Critiques de Pierre Bergé</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2009, Pierre Bergé, président du Sidaction, accuse le Téléthon de « parasiter la générosité des français ». Line Renaud, vice-présidente de cette même association, interrogée par Europe 1, demande « au Téléthon de partager ». Selon eux, pratiquement chaque année, toutes les ressources de l'AFM ne sont pas utilisées.
+En fait, l'AFM dispose d'un an de budget d'avance dans le seul but d'anticiper et « pallier un éventuel échec du Téléthon », ce qui lui évite toute rupture de financement pendant plusieurs mois.
+En 2009, des « produits financiers » ont rapporté 6,60 millions d'euros en légère baisse par rapport aux 7,89 millions de 2008, en grande partie causée par la diminution des dons et des reprises de réserves et provisions (investies sur des engagements pluriannuels), que ne compense pas la légère baisse des charges d'exploitation (survenue malgré la très légère hausse des charges de personnel), et par la hausse très sensible des charges exceptionnelles d'opérations de gestion (essentiellement des transferts de charge financière, en hausse de plus de 3 millions d'euros).
 Le rapport financier de 2009 fait aussi apparaître, pour la première fois, les montants des engagements pluriannuels sur des projets stratégiques de recherche, à hauteur de 13,3 millions d'euros, qui devront être réalisés dans l'exercice 2010, déjà bien entamé avant même le début de la collecte, ce qui nécessite le maintien de réserves couvrant un peu plus de la totalité du budget correspondant nécessaire pour l'exercice 2010.
-Critiques de Thomas Lubac
-Le journaliste Thomas Lubac publie en 2013 le livre Téléthon: les questions qui fâchent[77],[78],[79],[80]. Il y critique notamment le fait qu'aucun myopathe n'a été guéri, et que l'événement passe trop de temps sur du divertissement au détriment de l'information sur les myopathies. Des myopathes demanderaient plus d'aides au quotidien, à la place de la recherche dont ils ne perçoivent pas les résultats. Il propose également d'utiliser l'argent pour d'autres causes touchant plus de personnes, mais moins médiatisées.
-Expérimentation animale
-Des groupes opposés à l'expérimentation animale dénonce le financement de tests sur les animaux par l’AFM-Téléthon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Critiques formulées contre le Téléthon</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Critiques de Thomas Lubac</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journaliste Thomas Lubac publie en 2013 le livre Téléthon: les questions qui fâchent. Il y critique notamment le fait qu'aucun myopathe n'a été guéri, et que l'événement passe trop de temps sur du divertissement au détriment de l'information sur les myopathies. Des myopathes demanderaient plus d'aides au quotidien, à la place de la recherche dont ils ne perçoivent pas les résultats. Il propose également d'utiliser l'argent pour d'autres causes touchant plus de personnes, mais moins médiatisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Critiques formulées contre le Téléthon</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Expérimentation animale</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des groupes opposés à l'expérimentation animale dénonce le financement de tests sur les animaux par l’AFM-Téléthon.
 Face à ces accusations, l’association répond qu'elle ne s'en est jamais cachée, que ces tests sont indispensables et non remplaçables[réf. nécessaire]. Et son objectif premier reste de combattre, grâce à la recherche et aux dons du Téléthon, les maladies rares qui touchent trois millions de personnes en France[réf. nécessaire].
-Fin 2016, l'association Pour une éthique dans le traitement des animaux (PETA) dénonce le financement par l'AFM-Téléthon d'expérimentations animales faites sur des chiens par l'École nationale vétérinaire d'Alfort qui, de plus, n'auraient pas abouti à des résultats[81].
-Le 22 mai 2017, l’AFM-Téléthon a publié une mise au point sur la recherche in vivo sur son site internet. Elle y affirme que « la recherche animale est une obligation réglementaire, strictement encadrée par des règlements européens et français sous le contrôle en France des ministères de l’agriculture et de la recherche. Elle est indispensable pour valider la sécurité et l’efficacité d’un traitement avant qu’il ne soit également testé chez les malades. Les chercheurs y recourent alors par nécessité légale après avoir apporté la preuve que les méthodes alternatives ne permettraient pas de parvenir à ces résultats »[82].
-En avril 2017, une thérapie génique a démontré son efficacité chez des chiens naturellement atteints de myopathie myotubulaire. Ces chiens ont les mêmes difficultés que les enfants malades : difficultés à se mouvoir, à respirer, à déglutir… Le traitement de thérapie génique mis au point par Généthon, le laboratoire de l’AFM-Téléthon, a permis à ces chiens malades de retrouver toute leur mobilité. À la suite de ces résultats positifs, le traitement va pouvoir être testé chez des enfants atteints de cette maladie[source insuffisante][83].
-Gestion de l'argent et frais
-Des critiques se sont élevées en 2009 contre des notes de frais et argent indûment versées entre 1999 et 2001[84]. Dans son rapport de 2004, la Cour des comptes a signalé des dépenses élevées en frais de fonctionnement[85] de l’Association française contre les myopathies.
-Le 13 juin 2016, la Cour des comptes a publié son rapport sur le contrôle des comptes de l’AFM-Téléthon des exercices 2008 à 2013[86]. Le rapport conclut à « la conformité aux objectifs poursuivis par l’appel à la générosité du public des dépenses engagées par l’Association ».
-Selon le rapport annuel de l'association, pour l'exercice 2020, publié au journal officiel, environ un quart des dons (23,4%)[87],[88] est utilisé dans les frais de collecte et de gestion, ce qui est dans la fourchette basse des associations caritatives. Ces frais sont constitués d'achats à des entreprises commerciales, l'AFM étant une association, ne comporte pas tous les métiers en interne.
+Fin 2016, l'association Pour une éthique dans le traitement des animaux (PETA) dénonce le financement par l'AFM-Téléthon d'expérimentations animales faites sur des chiens par l'École nationale vétérinaire d'Alfort qui, de plus, n'auraient pas abouti à des résultats.
+Le 22 mai 2017, l’AFM-Téléthon a publié une mise au point sur la recherche in vivo sur son site internet. Elle y affirme que « la recherche animale est une obligation réglementaire, strictement encadrée par des règlements européens et français sous le contrôle en France des ministères de l’agriculture et de la recherche. Elle est indispensable pour valider la sécurité et l’efficacité d’un traitement avant qu’il ne soit également testé chez les malades. Les chercheurs y recourent alors par nécessité légale après avoir apporté la preuve que les méthodes alternatives ne permettraient pas de parvenir à ces résultats ».
+En avril 2017, une thérapie génique a démontré son efficacité chez des chiens naturellement atteints de myopathie myotubulaire. Ces chiens ont les mêmes difficultés que les enfants malades : difficultés à se mouvoir, à respirer, à déglutir… Le traitement de thérapie génique mis au point par Généthon, le laboratoire de l’AFM-Téléthon, a permis à ces chiens malades de retrouver toute leur mobilité. À la suite de ces résultats positifs, le traitement va pouvoir être testé chez des enfants atteints de cette maladie[source insuffisante].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Critiques formulées contre le Téléthon</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Gestion de l'argent et frais</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des critiques se sont élevées en 2009 contre des notes de frais et argent indûment versées entre 1999 et 2001. Dans son rapport de 2004, la Cour des comptes a signalé des dépenses élevées en frais de fonctionnement de l’Association française contre les myopathies.
+Le 13 juin 2016, la Cour des comptes a publié son rapport sur le contrôle des comptes de l’AFM-Téléthon des exercices 2008 à 2013. Le rapport conclut à « la conformité aux objectifs poursuivis par l’appel à la générosité du public des dépenses engagées par l’Association ».
+Selon le rapport annuel de l'association, pour l'exercice 2020, publié au journal officiel, environ un quart des dons (23,4%), est utilisé dans les frais de collecte et de gestion, ce qui est dans la fourchette basse des associations caritatives. Ces frais sont constitués d'achats à des entreprises commerciales, l'AFM étant une association, ne comporte pas tous les métiers en interne.
 La critique relative au paiement de prestations à des laboratoires privés repose également sur la même interprétation erronée : le laboratoire Généthon n'a en charge que de la recherche génétique. Des analyses et autres nécessités scientifiques sont alors achetées dans le secteur privé.
-Critiques d'associations de personnes handicapées
-Plusieurs membres du CLHEE critiquent le concept du Téléthon pour plusieurs raisons :
-Diffuser une vision misérabiliste et validiste des personnes handicapées en général, perçues comme des objets brisés à réparer et réduits à demander la charité au détriment des changements sociaux qui pourraient être réalisées pour résoudre le problème du handicap[89]
-Instiller une peur du handicap (voir Handiphobie) qui accroîtrait le refus des enfants handicapés dans les écoles et de cohabitation avec les personnes handicapées en général[89]
-Utiliser des enfants-mascottes qui peuvent avoir le sentiment d'avoir été utilisés et, comme dans d'autres pays, se retourner une fois adultes contre le concept du Téléthon[90]
-Déresponsabiliser l'État sur le sujet des personnes handicapées au moyen d'un appel à la charité publique[90]</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Téléthon_en_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9thon_en_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Critiques formulées contre le Téléthon</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Critiques d'associations de personnes handicapées</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Plusieurs membres du CLHEE critiquent le concept du Téléthon pour plusieurs raisons :
+Diffuser une vision misérabiliste et validiste des personnes handicapées en général, perçues comme des objets brisés à réparer et réduits à demander la charité au détriment des changements sociaux qui pourraient être réalisées pour résoudre le problème du handicap
+Instiller une peur du handicap (voir Handiphobie) qui accroîtrait le refus des enfants handicapés dans les écoles et de cohabitation avec les personnes handicapées en général
+Utiliser des enfants-mascottes qui peuvent avoir le sentiment d'avoir été utilisés et, comme dans d'autres pays, se retourner une fois adultes contre le concept du Téléthon
+Déresponsabiliser l'État sur le sujet des personnes handicapées au moyen d'un appel à la charité publique</t>
         </is>
       </c>
     </row>
